--- a/SupersNew/characters/Justicar (DSG).xlsx
+++ b/SupersNew/characters/Justicar (DSG).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jom128/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magou\Desktop\Runebearer\SupersNew\characters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD10F794-9F0F-434A-B71B-114A3C705740}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09351FD5-9527-4568-AEBB-DFB53D714C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5380" yWindow="460" windowWidth="20220" windowHeight="14460" xr2:uid="{C5BDF303-2A10-428A-B5FA-9C2DEF49E8B6}"/>
+    <workbookView xWindow="12690" yWindow="0" windowWidth="25500" windowHeight="18060" xr2:uid="{C5BDF303-2A10-428A-B5FA-9C2DEF49E8B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Character Sheet" sheetId="1" r:id="rId1"/>
@@ -388,12 +388,34 @@
     <t>Careful</t>
   </si>
   <si>
+    <t>Energy Wave</t>
+  </si>
+  <si>
+    <t>3 cone</t>
+  </si>
+  <si>
+    <t>·        2d8 + Power Energy Damage (Reflex)</t>
+  </si>
+  <si>
+    <t>·        Extra Knock(1)</t>
+  </si>
+  <si>
+    <t>2/4/0</t>
+  </si>
+  <si>
+    <t>Day Job: Bookworm</t>
+  </si>
+  <si>
+    <t>Bonuses: +1 Power, +1 Wit</t>
+  </si>
+  <si>
     <r>
       <t>·</t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <b/>
+        <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -402,34 +424,14 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <b/>
+        <sz val="7"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t>You take normal penalties when firing into melee, but NEVER hit your allies</t>
     </r>
-  </si>
-  <si>
-    <t>Energy Wave</t>
-  </si>
-  <si>
-    <t>3 cone</t>
-  </si>
-  <si>
-    <t>·        2d8 + Power Energy Damage (Reflex)</t>
-  </si>
-  <si>
-    <t>·        Extra Knock(1)</t>
-  </si>
-  <si>
-    <t>2/4/0</t>
-  </si>
-  <si>
-    <t>Day Job: Bookworm</t>
-  </si>
-  <si>
-    <t>Bonuses: +1 Power, +1 Wit</t>
   </si>
 </sst>
 </file>
@@ -466,27 +468,32 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="7"/>
       <color theme="1"/>
       <name val="Symbol"/>
+      <family val="1"/>
       <charset val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="7"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
       <family val="1"/>
     </font>
   </fonts>
@@ -660,25 +667,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -690,32 +700,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1116,20 +1123,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AFC3A5-DB28-4F5E-8A77-AD87DC2FBB2F}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" customWidth="1"/>
-    <col min="8" max="8" width="34.33203125" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +1153,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>76</v>
       </c>
@@ -1163,7 +1170,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>77</v>
       </c>
@@ -1178,7 +1185,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1189,7 +1196,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -1203,7 +1210,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
@@ -1224,10 +1231,10 @@
         <v>7</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1248,10 +1255,10 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1273,7 +1280,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -1295,7 +1302,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1317,7 +1324,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -1339,7 +1346,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1356,7 +1363,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
@@ -1373,7 +1380,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1383,7 +1390,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>73</v>
       </c>
@@ -1395,16 +1402,16 @@
       <c r="D15" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" s="13"/>
+      <c r="E15" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="14"/>
       <c r="G15" s="9" t="s">
         <v>78</v>
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>74</v>
       </c>
@@ -1418,7 +1425,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>72</v>
       </c>
@@ -1433,7 +1440,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1443,406 +1450,420 @@
       <c r="G18" s="11"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="26" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="15">
         <v>20</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="15">
         <v>-1</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="15">
         <v>6</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="I21" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="19" t="s">
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="20" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="22">
         <v>20</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="22">
         <v>1</v>
       </c>
-      <c r="I23" s="27" t="s">
+      <c r="I23" s="24" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="26" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="15">
         <v>20</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="15">
         <v>8</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="I24" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="30" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="19" t="s">
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="39" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="15">
         <v>20</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="15">
         <v>24</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="I27" s="16" t="s">
+      <c r="I27" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="26" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="30" t="s">
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="39" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="30" t="s">
+    <row r="29" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="19" t="s">
+    <row r="30" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="53" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+    <row r="31" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="22">
         <v>10</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H31" s="22">
         <v>0</v>
       </c>
-      <c r="I31" s="27" t="s">
+      <c r="I31" s="24" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="39" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
+    <row r="32" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="15">
         <v>10</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="15">
         <v>0</v>
       </c>
-      <c r="I32" s="16" t="s">
+      <c r="I32" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="40" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="19" t="s">
+    <row r="33" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="20" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="40" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+    <row r="34" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="29">
         <v>10</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="29">
         <v>0</v>
       </c>
-      <c r="I34" s="23" t="s">
+      <c r="I34" s="31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="26" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
+      <c r="B35" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="15">
+        <v>20</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="14">
-        <v>20</v>
-      </c>
-      <c r="E35" s="14">
-        <v>0</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G35" s="15" t="s">
+      <c r="H35" s="15">
+        <v>8</v>
+      </c>
+      <c r="I35" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="H35" s="14">
-        <v>8</v>
-      </c>
-      <c r="I35" s="16" t="s">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="20" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="19" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="F27:F30"/>
     <mergeCell ref="G27:G30"/>
     <mergeCell ref="H27:H30"/>
@@ -1859,27 +1880,14 @@
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1907,16 +1915,16 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1939,7 +1947,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1967,7 +1975,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1995,7 +2003,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -2023,7 +2031,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2048,7 +2056,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -2073,7 +2081,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -2101,7 +2109,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2129,7 +2137,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -2157,7 +2165,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -2185,7 +2193,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -2213,7 +2221,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -2241,7 +2249,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -2269,7 +2277,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2294,7 +2302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2319,7 +2327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2344,7 +2352,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2369,7 +2377,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -2394,7 +2402,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -2419,7 +2427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -2444,7 +2452,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2469,7 +2477,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -2494,7 +2502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2519,7 +2527,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -2544,7 +2552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2569,7 +2577,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -2594,7 +2602,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -2619,7 +2627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -2644,7 +2652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -2669,7 +2677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -2694,7 +2702,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -2719,7 +2727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -2744,7 +2752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
